--- a/заказы/статистика филиалы/2023/10,23/06,10,23 ЗПФ/дв 06,10,23 бррсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/06,10,23 ЗПФ/дв 06,10,23 бррсч зпф.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\06,10,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183E6E3E-2E90-44F3-9EB6-50EABA662293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DD9409-ACB8-46EE-A657-759A5C34B807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,9 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AA$37</definedName>
+  </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -232,10 +235,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2481,7 +2488,7 @@
   <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -5185,6 +5192,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:AA37" xr:uid="{7606A047-9546-4C1A-BEAC-F24FF8A8DB8C}"/>
   <pageMargins left="0.35433070866141736" right="0.39370078740157483" top="0.74803149606299213" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
